--- a/PIN.xlsx
+++ b/PIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiba\Documents\M1\Q1\projet_mCetIOT\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579603BE-4A81-4A84-9C79-E76AD56FC6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1EDA72-6D44-441E-B8A8-8DE228EED2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17420" windowHeight="13900" xr2:uid="{BA80C008-2617-491D-8515-A91423753D7C}"/>
   </bookViews>
